--- a/src/main/resources/database/TableDefinition.xlsx
+++ b/src/main/resources/database/TableDefinition.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Pokedex_ver01\Pokedex_ver01\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF4D912-FF1C-4ED0-93CE-39142BDA2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D66D0F-252D-4ECE-A280-22AB5A5C4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{BE4189A2-4DE1-4805-86BE-3C590D75C928}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E6BB7A7E-79A9-4944-8C8D-88F4C30329F0}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
     <sheet name="エンティティ一覧" sheetId="3" r:id="rId2"/>
     <sheet name="ドメイン一覧" sheetId="4" r:id="rId3"/>
-    <sheet name="ポケモン図鑑マスタ" sheetId="5" r:id="rId4"/>
-    <sheet name="タイプマスタ" sheetId="6" r:id="rId5"/>
-    <sheet name="ユーザーマスタ" sheetId="7" r:id="rId6"/>
+    <sheet name="世代マスタ" sheetId="5" r:id="rId4"/>
+    <sheet name="ポケモン図鑑説明文マスタ" sheetId="6" r:id="rId5"/>
+    <sheet name="ポケモン図鑑マスタ" sheetId="7" r:id="rId6"/>
+    <sheet name="タイプマスタ" sheetId="8" r:id="rId7"/>
+    <sheet name="ユーザーマスタ" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="129">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -64,7 +66,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2022/07/15</t>
+    <t>2022/08/17</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -82,6 +84,18 @@
     <t>タグ</t>
   </si>
   <si>
+    <t>世代マスタ</t>
+  </si>
+  <si>
+    <t>PK_GENERATION_MST</t>
+  </si>
+  <si>
+    <t>ポケモン図鑑説明文マスタ</t>
+  </si>
+  <si>
+    <t>PK_POKEDEX_EXPLANATION_MST</t>
+  </si>
+  <si>
     <t>ポケモン図鑑マスタ</t>
   </si>
   <si>
@@ -139,16 +153,148 @@
     <t>デフォルト</t>
   </si>
   <si>
+    <t>世代ID</t>
+  </si>
+  <si>
+    <t>GENERATION_ID</t>
+  </si>
+  <si>
+    <t>NUMBER(3,0)</t>
+  </si>
+  <si>
+    <t>(PK)</t>
+  </si>
+  <si>
+    <t>世代名</t>
+  </si>
+  <si>
+    <t>GENERATION_NAME</t>
+  </si>
+  <si>
+    <t>@VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>登録日付</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>@DATETIME</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>登録者</t>
+  </si>
+  <si>
+    <t>CREATER</t>
+  </si>
+  <si>
+    <t>@VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>登録プログラムID</t>
+  </si>
+  <si>
+    <t>CREATE_PROGRAM</t>
+  </si>
+  <si>
+    <t>@VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>更新日付</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>UPDATER</t>
+  </si>
+  <si>
+    <t>更新プログラムID</t>
+  </si>
+  <si>
+    <t>UPDATE_PROGRAM</t>
+  </si>
+  <si>
+    <t>更新回数</t>
+  </si>
+  <si>
+    <t>UPDATE_COUNT</t>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>DELETE_FLAG</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>リレーションシップ情報(FK側)</t>
+  </si>
+  <si>
+    <t>動詞句</t>
+  </si>
+  <si>
+    <t>参照先エンティティ名</t>
+  </si>
+  <si>
+    <t>参照先カラムリスト</t>
+  </si>
+  <si>
+    <t>リレーションシップ情報(PK側)</t>
+  </si>
+  <si>
+    <t>参照元エンティティ名</t>
+  </si>
+  <si>
+    <t>参照元カラムリスト</t>
+  </si>
+  <si>
     <t>ポケモンID</t>
   </si>
   <si>
     <t>POKEMON_ID</t>
   </si>
   <si>
-    <t>NUMBER(5,0)</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>説明文_ひらがな</t>
+  </si>
+  <si>
+    <t>EXPLANATION_HIRAGANA</t>
+  </si>
+  <si>
+    <t>@VARCHAR(1024)</t>
+  </si>
+  <si>
+    <t>説明文_漢字</t>
+  </si>
+  <si>
+    <t>EXPLANATION_KANJI</t>
+  </si>
+  <si>
+    <t>POKEMON_ID,</t>
   </si>
   <si>
     <t>ポケモンID枝番</t>
@@ -157,135 +303,90 @@
     <t>POKEMON_ID_BRANCH</t>
   </si>
   <si>
-    <t>NUMBER(3,0)</t>
-  </si>
-  <si>
     <t>ポケモン日本語名</t>
   </si>
   <si>
     <t>POKEMON_JP_NAME</t>
   </si>
   <si>
-    <t>@VARCHAR(100)</t>
-  </si>
-  <si>
     <t>ポケモン英語名</t>
   </si>
   <si>
     <t>POKEMON_EN_NAME</t>
   </si>
   <si>
+    <t>タイプID_1</t>
+  </si>
+  <si>
+    <t>TYPE_ID_1</t>
+  </si>
+  <si>
+    <t>タイプID_2</t>
+  </si>
+  <si>
+    <t>TYPE_ID_2</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HIT_POINT</t>
+  </si>
+  <si>
+    <t>こうげき</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>ぼうぎょ</t>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+  </si>
+  <si>
+    <t>とっこう</t>
+  </si>
+  <si>
+    <t>SPECIAL_ATTACK</t>
+  </si>
+  <si>
+    <t>とくぼう</t>
+  </si>
+  <si>
+    <t>SPECIAL_DEFENSE</t>
+  </si>
+  <si>
+    <t>すばやさ</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>高さ(m)</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>NUMBER(10,5)</t>
+  </si>
+  <si>
+    <t>重さ(kg)</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>POKEMON_ID,POKEMON_ID_BRANCH</t>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+  </si>
+  <si>
     <t>タイプID</t>
   </si>
   <si>
-    <t>TYPE_ID</t>
-  </si>
-  <si>
-    <t>高さ</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>NUMBER(10,5)</t>
-  </si>
-  <si>
-    <t>重さ</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
-    <t>登録日付</t>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-  </si>
-  <si>
-    <t>@DATETIME</t>
-  </si>
-  <si>
-    <t>登録者</t>
-  </si>
-  <si>
-    <t>CREATER</t>
-  </si>
-  <si>
-    <t>登録プログラムID</t>
-  </si>
-  <si>
-    <t>CREATE_PROGRAM</t>
-  </si>
-  <si>
-    <t>@VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>更新日付</t>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-  </si>
-  <si>
-    <t>更新者</t>
-  </si>
-  <si>
-    <t>UPDATER</t>
-  </si>
-  <si>
-    <t>更新プログラムID</t>
-  </si>
-  <si>
-    <t>UPDATE_PROGRAM</t>
-  </si>
-  <si>
-    <t>更新回数</t>
-  </si>
-  <si>
-    <t>UPDATE_COUNT</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>DELETE_FLAG</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>POKEMON_ID,POKEMON_ID_BRANCH</t>
-  </si>
-  <si>
-    <t>リレーションシップ情報(FK側)</t>
-  </si>
-  <si>
-    <t>動詞句</t>
-  </si>
-  <si>
-    <t>参照先エンティティ名</t>
-  </si>
-  <si>
-    <t>参照先カラムリスト</t>
-  </si>
-  <si>
-    <t>リレーションシップ情報(PK側)</t>
-  </si>
-  <si>
-    <t>参照元エンティティ名</t>
-  </si>
-  <si>
-    <t>参照元カラムリスト</t>
-  </si>
-  <si>
     <t>Yes (PK)</t>
   </si>
   <si>
@@ -293,9 +394,6 @@
   </si>
   <si>
     <t>TYPE_NAME</t>
-  </si>
-  <si>
-    <t>@VARCHAR(30)</t>
   </si>
   <si>
     <t>ユーザーID</t>
@@ -455,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -886,6 +984,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -948,6 +1072,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,12 +1295,21 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1156,16 +1337,28 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,22 +1367,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyBorder="1">
@@ -1515,10 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A8CBE-89DB-4479-8CFE-87B63FD1AA85}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CEDCF-311E-44B8-9EAD-FABFB0E25DA1}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2036,20 +2232,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59124B5-FC74-4BD2-9BA8-9D551A015C2F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9132844C-9DED-4CAB-86FD-311FE9708E05}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2103,46 +2291,66 @@
       <c r="B4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="28">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'ポケモン図鑑マスタ'!A1" display="'ポケモン図鑑マスタ'!A1" xr:uid="{9068F823-4CEE-4C7F-B836-6E57741E6668}"/>
-    <hyperlink ref="C4" location="'タイプマスタ'!A1" display="'タイプマスタ'!A1" xr:uid="{51804DAB-3DC3-479C-9C6B-3D1F58D3A1B6}"/>
-    <hyperlink ref="C5" location="'ユーザーマスタ'!A1" display="'ユーザーマスタ'!A1" xr:uid="{E8941033-9A18-47D7-A3C8-258E23764C53}"/>
+    <hyperlink ref="C3" location="'世代マスタ'!A1" display="'世代マスタ'!A1" xr:uid="{4410AC51-B727-4E77-9C8D-BD89FDBAE933}"/>
+    <hyperlink ref="C4" location="'ポケモン図鑑説明文マスタ'!A1" display="'ポケモン図鑑説明文マスタ'!A1" xr:uid="{1A1EF086-2A01-4075-AF2C-E2E45A1B4431}"/>
+    <hyperlink ref="C5" location="'ポケモン図鑑マスタ'!A1" display="'ポケモン図鑑マスタ'!A1" xr:uid="{70643087-97CD-4CED-94E8-EC3CE181B09C}"/>
+    <hyperlink ref="C6" location="'タイプマスタ'!A1" display="'タイプマスタ'!A1" xr:uid="{DDC05C62-43CC-4E5B-B68E-43B90C6963CE}"/>
+    <hyperlink ref="C7" location="'ユーザーマスタ'!A1" display="'ユーザーマスタ'!A1" xr:uid="{77316716-4227-45E1-9158-973AC6B89FD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834217B1-A2B3-445A-B5A4-82802D834700}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49412A75-BD30-4B72-992B-B66BB5E12933}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2157,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2165,32 +2373,24 @@
         <v>10</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C29F691-972E-4158-BF37-7FAEB27CF3D7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE7B93-8CC7-4E3F-8B9B-22F7C8E1AD9E}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -2241,14 +2441,14 @@
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="15"/>
@@ -2315,7 +2515,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2323,21 +2523,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2345,23 +2545,23 @@
       <c r="A14" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>26</v>
+      <c r="B14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2369,20 +2569,20 @@
         <v>2</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="54"/>
-      <c r="F15" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>26</v>
+      <c r="F15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2390,20 +2590,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2411,20 +2613,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2432,20 +2636,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2453,20 +2659,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>26</v>
+      <c r="F19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2474,20 +2682,20 @@
         <v>7</v>
       </c>
       <c r="B20" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" s="54"/>
-      <c r="F20" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>26</v>
+      <c r="F20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2495,22 +2703,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2518,275 +2726,183 @@
         <v>9</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25">
+        <v>47</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="28">
         <v>10</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25">
-        <v>11</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="54" t="s">
+      <c r="B23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>26</v>
+      <c r="C23" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25">
-        <v>13</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25">
-        <v>14</v>
-      </c>
-      <c r="B27" s="54" t="s">
+      <c r="A26" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C26" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="28">
-        <v>15</v>
-      </c>
-      <c r="B28" s="55" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="G26" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="51">
+        <v>1</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="24" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="34" t="s">
+    <row r="30" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B30" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C30" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="48" t="s">
+      <c r="F30" s="76"/>
+      <c r="G30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="51">
+    </row>
+    <row r="32" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="86"/>
+      <c r="G33" s="60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="31">
         <v>1</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="73"/>
+      <c r="B34" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="84"/>
+      <c r="E34" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="84"/>
+      <c r="G34" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="28">
+        <v>2</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="E35" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="82"/>
       <c r="G35" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="51">
-        <v>1</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="40" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E39:F39"/>
+  <mergeCells count="19">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2800,20 +2916,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EAB71-2F07-45D3-8FFB-66131D9C8543}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3222CA7E-4E6F-491F-9C7A-69C7907745A0}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2829,7 +2937,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -2864,14 +2972,14 @@
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="15"/>
@@ -2938,7 +3046,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2946,21 +3054,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2968,23 +3076,23 @@
       <c r="A14" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>26</v>
+      <c r="B14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2992,22 +3100,20 @@
         <v>2</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3015,22 +3121,20 @@
         <v>3</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3038,22 +3142,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3061,22 +3163,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3084,22 +3186,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3107,22 +3209,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3130,22 +3232,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3153,50 +3255,1475 @@
         <v>9</v>
       </c>
       <c r="B22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="25">
+        <v>11</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="28">
+        <v>12</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>66</v>
       </c>
+      <c r="C28" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="51">
+        <v>1</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="86"/>
+      <c r="G32" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="31">
+        <v>1</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="84"/>
+      <c r="G33" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="28">
+        <v>2</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="76"/>
+      <c r="G37" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A762519F-6218-4450-B172-1F10DC0C47F8}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="37" customWidth="1"/>
+    <col min="3" max="4" width="14.58203125" style="37" customWidth="1"/>
+    <col min="5" max="6" width="8.58203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="28.58203125" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="44"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="25">
+        <v>7</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="25">
+        <v>8</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="25">
+        <v>9</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="25">
+        <v>11</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="25">
+        <v>13</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="25">
+        <v>14</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="25">
+        <v>15</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="25">
+        <v>16</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="25">
+        <v>17</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="25">
+        <v>18</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="25">
+        <v>19</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="25">
+        <v>20</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="25">
+        <v>21</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="25">
+        <v>22</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="28">
+        <v>23</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>67</v>
       </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="51">
+        <v>1</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="53"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="86"/>
+      <c r="G43" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="31">
+        <v>1</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="84"/>
+      <c r="E44" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="25">
+        <v>2</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="80"/>
+      <c r="E45" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="80"/>
+      <c r="G45" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="28">
+        <v>3</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="82"/>
+      <c r="E46" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="82"/>
+      <c r="G46" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="86"/>
+      <c r="G49" s="60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="51">
+        <v>1</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="78"/>
+      <c r="E50" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B40FA3-067F-496A-88D2-3E1BAF7CFBFD}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="37" customWidth="1"/>
+    <col min="3" max="4" width="14.58203125" style="37" customWidth="1"/>
+    <col min="5" max="6" width="8.58203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="28.58203125" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="44"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="25">
+        <v>7</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="25">
+        <v>8</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="25">
+        <v>9</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="54" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="28">
         <v>10</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>26</v>
+      <c r="E23" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3204,15 +4731,15 @@
         <v>10</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>4</v>
@@ -3220,7 +4747,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3228,23 +4755,23 @@
         <v>10</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="77"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3252,41 +4779,62 @@
         <v>10</v>
       </c>
       <c r="B32" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="86"/>
+      <c r="G32" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="51">
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="31">
         <v>1</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="53" t="s">
-        <v>46</v>
+      <c r="B33" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="84"/>
+      <c r="G33" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="28">
+        <v>2</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="57" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E29:F29"/>
@@ -3306,19 +4854,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A742FB-4428-4A74-9A82-6019C8ED8BA1}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34732BA0-8DF9-41D7-A845-59D19A535E50}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3335,7 +4875,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3370,14 +4910,14 @@
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="15"/>
@@ -3387,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="49" t="s">
@@ -3401,7 +4941,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="50"/>
@@ -3444,7 +4984,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3452,21 +4992,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3474,23 +5014,23 @@
       <c r="A14" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>26</v>
+      <c r="B14" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3498,22 +5038,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3521,22 +5061,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3544,20 +5084,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E17" s="54"/>
-      <c r="F17" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>26</v>
+      <c r="F17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3565,22 +5105,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3588,22 +5128,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3611,22 +5151,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3634,22 +5174,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3657,22 +5197,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3680,22 +5220,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3703,22 +5243,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3726,50 +5266,50 @@
         <v>12</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="28">
         <v>13</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="55" t="s">
+      <c r="B26" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>26</v>
+      <c r="E26" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3777,15 +5317,15 @@
         <v>10</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>4</v>
@@ -3793,7 +5333,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3801,23 +5341,23 @@
         <v>10</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="77"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3825,18 +5365,18 @@
         <v>10</v>
       </c>
       <c r="B35" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="G35" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="40" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3858,10 +5398,5 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>